--- a/Code/Results/Cases/Case_4_86/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_86/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.57559484976008</v>
+        <v>1.011094610950067</v>
       </c>
       <c r="C2">
-        <v>2.375787712569775</v>
+        <v>0.851912200597269</v>
       </c>
       <c r="D2">
-        <v>0.2103879126730703</v>
+        <v>0.07773382499803461</v>
       </c>
       <c r="E2">
-        <v>0.1362344129673936</v>
+        <v>0.05541757197566</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007569943947103808</v>
+        <v>0.002498352824656007</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.635171673955028</v>
+        <v>4.037666906858703</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.24181776543854</v>
+        <v>0.4877617833367225</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.166977627802169</v>
+        <v>0.9445053853133345</v>
       </c>
       <c r="C3">
-        <v>2.023531232024197</v>
+        <v>0.770090198141645</v>
       </c>
       <c r="D3">
-        <v>0.1793409075972079</v>
+        <v>0.07057300904632768</v>
       </c>
       <c r="E3">
-        <v>0.117158260979302</v>
+        <v>0.05063322030689221</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007732951087867623</v>
+        <v>0.002506692214119027</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8.359542236248444</v>
+        <v>3.701989948544707</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.055370547702708</v>
+        <v>0.4485988992850238</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.928994820913459</v>
+        <v>0.905138486006507</v>
       </c>
       <c r="C4">
-        <v>1.815559694606691</v>
+        <v>0.7203888840911645</v>
       </c>
       <c r="D4">
-        <v>0.160996996953088</v>
+        <v>0.06622831972570964</v>
       </c>
       <c r="E4">
-        <v>0.1058392464058002</v>
+        <v>0.0477165122276908</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.00078335624460595</v>
+        <v>0.002512059872913826</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>7.601840118665734</v>
+        <v>3.496110696767971</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.945706849685422</v>
+        <v>0.4249970262051761</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.834694237812528</v>
+        <v>0.889471005634789</v>
       </c>
       <c r="C5">
-        <v>1.732527460755477</v>
+        <v>0.7002655796318891</v>
       </c>
       <c r="D5">
-        <v>0.1536706250049775</v>
+        <v>0.06447050239999896</v>
       </c>
       <c r="E5">
-        <v>0.1013083366652836</v>
+        <v>0.04653293361720046</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0007874796958136102</v>
+        <v>0.002514309712713722</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>7.298306074982349</v>
+        <v>3.412251916082198</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.9020173127316582</v>
+        <v>0.4154880792310109</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.819182745940765</v>
+        <v>0.886891866654878</v>
       </c>
       <c r="C6">
-        <v>1.71883401470194</v>
+        <v>0.6969318559234239</v>
       </c>
       <c r="D6">
-        <v>0.1524622453111277</v>
+        <v>0.0641793719211563</v>
       </c>
       <c r="E6">
-        <v>0.1005604594095892</v>
+        <v>0.04633669619306247</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0007881660779106737</v>
+        <v>0.002514687079209966</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>7.248189518766765</v>
+        <v>3.398329028553945</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.8948175206408919</v>
+        <v>0.4139156314725341</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.927712881339005</v>
+        <v>0.9049256804531751</v>
       </c>
       <c r="C7">
-        <v>1.814433386005874</v>
+        <v>0.720116972558003</v>
       </c>
       <c r="D7">
-        <v>0.1608976263677562</v>
+        <v>0.06620456239494388</v>
       </c>
       <c r="E7">
-        <v>0.1057778312142261</v>
+        <v>0.04770053014411246</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0007834117473893018</v>
+        <v>0.002512089961813152</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>7.597726785578402</v>
+        <v>3.494979615644695</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.9451138455166941</v>
+        <v>0.4248683473931791</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.431650108976726</v>
+        <v>0.987814965539485</v>
       </c>
       <c r="C8">
-        <v>2.252358297553656</v>
+        <v>0.8235854063493662</v>
       </c>
       <c r="D8">
-        <v>0.1995126942133822</v>
+        <v>0.07525371035582396</v>
       </c>
       <c r="E8">
-        <v>0.1295638514664965</v>
+        <v>0.05376343436105202</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007626107460185874</v>
+        <v>0.002501177115772661</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.18925600537105</v>
+        <v>3.921866854210919</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.176391969633535</v>
+        <v>0.4741645433138189</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.554627324970625</v>
+        <v>1.162754261462908</v>
       </c>
       <c r="C9">
-        <v>3.198231796196694</v>
+        <v>1.030985521590253</v>
       </c>
       <c r="D9">
-        <v>0.282742840328055</v>
+        <v>0.0934323850919867</v>
       </c>
       <c r="E9">
-        <v>0.1803040155101456</v>
+        <v>0.06583075442872399</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007216571401515064</v>
+        <v>0.002481724780382634</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.57941767160125</v>
+        <v>4.761684978658934</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.680129249218041</v>
+        <v>0.5744896393367469</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.522450034926635</v>
+        <v>1.29933389737397</v>
       </c>
       <c r="C10">
-        <v>3.985549676544281</v>
+        <v>1.186447642184078</v>
       </c>
       <c r="D10">
-        <v>0.3518027203972025</v>
+        <v>0.1070821039570689</v>
       </c>
       <c r="E10">
-        <v>0.2218595400314811</v>
+        <v>0.07482298068691762</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0006903978962048601</v>
+        <v>0.002468600739639869</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.35649419888313</v>
+        <v>5.381639588208827</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2.103146266194585</v>
+        <v>0.6506184819936038</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.014297668761515</v>
+        <v>1.363328137324402</v>
       </c>
       <c r="C11">
-        <v>4.37696456013191</v>
+        <v>1.257918685846732</v>
       </c>
       <c r="D11">
-        <v>0.3860505296234606</v>
+        <v>0.1133622256748339</v>
       </c>
       <c r="E11">
-        <v>0.2422789510305989</v>
+        <v>0.07894522485135269</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.000675565480493661</v>
+        <v>0.002462879506383099</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.72239930669963</v>
+        <v>5.664602265979056</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2.314574426408569</v>
+        <v>0.6858202454155418</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.210554956647343</v>
+        <v>1.387838292513152</v>
       </c>
       <c r="C12">
-        <v>4.531613464625821</v>
+        <v>1.285097052942717</v>
       </c>
       <c r="D12">
-        <v>0.3995649565002992</v>
+        <v>0.1157510628113698</v>
       </c>
       <c r="E12">
-        <v>0.2503012865619354</v>
+        <v>0.08051107880248054</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0006698162470287893</v>
+        <v>0.002460748486064696</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>17.25936330746924</v>
+        <v>5.771911584220902</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2.398305384367589</v>
+        <v>0.6992357593881309</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.167789737405144</v>
+        <v>1.3825471299985</v>
       </c>
       <c r="C13">
-        <v>4.497987748977721</v>
+        <v>1.279238546626459</v>
       </c>
       <c r="D13">
-        <v>0.3966273225056511</v>
+        <v>0.1152361001992119</v>
       </c>
       <c r="E13">
-        <v>0.2485591886641458</v>
+        <v>0.08017362359022684</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0006710612416497788</v>
+        <v>0.002461205866027661</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>17.14274105275507</v>
+        <v>5.748793241771637</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2.380090307795044</v>
+        <v>0.6963426371117549</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.03022477570272</v>
+        <v>1.36533900021152</v>
       </c>
       <c r="C14">
-        <v>4.389547007530723</v>
+        <v>1.260152350602255</v>
       </c>
       <c r="D14">
-        <v>0.3871504498964811</v>
+        <v>0.1135585394921179</v>
       </c>
       <c r="E14">
-        <v>0.2429326312630025</v>
+        <v>0.07907394965765491</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0006750954611169924</v>
+        <v>0.002462703476827866</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.76614500102801</v>
+        <v>5.67342738376982</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2.321382820135241</v>
+        <v>0.6869222173166634</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.947359646830705</v>
+        <v>1.354834858469644</v>
       </c>
       <c r="C15">
-        <v>4.324020953261083</v>
+        <v>1.248476507265309</v>
       </c>
       <c r="D15">
-        <v>0.3814216513164013</v>
+        <v>0.1125323928729642</v>
       </c>
       <c r="E15">
-        <v>0.239526562093225</v>
+        <v>0.07840100822324558</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.000677547664101564</v>
+        <v>0.002463625418634334</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.53821756390329</v>
+        <v>5.627284792310888</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2.285934469312963</v>
+        <v>0.6811631571086281</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.491543844184378</v>
+        <v>1.295189980669022</v>
       </c>
       <c r="C16">
-        <v>3.960766033685502</v>
+        <v>1.181792445260101</v>
       </c>
       <c r="D16">
-        <v>0.349632214833079</v>
+        <v>0.106673151168863</v>
       </c>
       <c r="E16">
-        <v>0.2205611577911455</v>
+        <v>0.07455424443099901</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.000691351474029658</v>
+        <v>0.002468979618485356</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.26967847018926</v>
+        <v>5.363168140094899</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>2.0897833952844</v>
+        <v>0.6483297254813607</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.226679717797538</v>
+        <v>1.259083347304852</v>
       </c>
       <c r="C17">
-        <v>3.747430314715359</v>
+        <v>1.141080314101089</v>
       </c>
       <c r="D17">
-        <v>0.3309392010135213</v>
+        <v>0.1030971875829323</v>
       </c>
       <c r="E17">
-        <v>0.209358300456735</v>
+        <v>0.0722026934179425</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0006996360141401194</v>
+        <v>0.002472327788585017</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.52075816310753</v>
+        <v>5.201397937961559</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.974879798226866</v>
+        <v>0.6283359172022642</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.07899313504015</v>
+        <v>1.23849061335784</v>
       </c>
       <c r="C18">
-        <v>3.627729881487141</v>
+        <v>1.117734054281129</v>
       </c>
       <c r="D18">
-        <v>0.320443485585713</v>
+        <v>0.1010470201150184</v>
       </c>
       <c r="E18">
-        <v>0.2030518930999179</v>
+        <v>0.0708531027210384</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007043468154544154</v>
+        <v>0.002474277019754757</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.09927772262947</v>
+        <v>5.108439333634323</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.910506587137434</v>
+        <v>0.616889486995106</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.029724901033148</v>
+        <v>1.231548029137514</v>
       </c>
       <c r="C19">
-        <v>3.587676682588153</v>
+        <v>1.109841305594159</v>
       </c>
       <c r="D19">
-        <v>0.3169303557019418</v>
+        <v>0.100353992404834</v>
       </c>
       <c r="E19">
-        <v>0.2009384158338179</v>
+        <v>0.07039665372545301</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007059335967199107</v>
+        <v>0.00247494103328849</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.9580413942877</v>
+        <v>5.076979486194034</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.888982529534431</v>
+        <v>0.6130230070944691</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.254377367384109</v>
+        <v>1.262908800114019</v>
       </c>
       <c r="C20">
-        <v>3.76981929199826</v>
+        <v>1.14540687388569</v>
       </c>
       <c r="D20">
-        <v>0.3329017654995567</v>
+        <v>0.1034771649500783</v>
       </c>
       <c r="E20">
-        <v>0.2105362253206593</v>
+        <v>0.07245271161409761</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0006987599960633855</v>
+        <v>0.002471968945379749</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.5994912896922</v>
+        <v>5.218609455400696</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.986928160322435</v>
+        <v>0.6304587333450229</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.070333540413628</v>
+        <v>1.370385856564212</v>
       </c>
       <c r="C21">
-        <v>4.421207825321119</v>
+        <v>1.265755291679</v>
       </c>
       <c r="D21">
-        <v>0.389917858403166</v>
+        <v>0.1140509854298557</v>
       </c>
       <c r="E21">
-        <v>0.24457670697862</v>
+        <v>0.07939681650129415</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0006739145512326428</v>
+        <v>0.002462262631669178</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.87617587108144</v>
+        <v>5.695559710759596</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2.338517771107803</v>
+        <v>0.6896868788291499</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.664009170191378</v>
+        <v>1.442246822498532</v>
       </c>
       <c r="C22">
-        <v>4.885712793343259</v>
+        <v>1.345076318099416</v>
       </c>
       <c r="D22">
-        <v>0.4304706957416755</v>
+        <v>0.121024153715112</v>
       </c>
       <c r="E22">
-        <v>0.2685706724349259</v>
+        <v>0.08396360225697208</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0006568688087065992</v>
+        <v>0.00245612568849126</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>18.48300645368596</v>
+        <v>6.008202873363928</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.590427532500769</v>
+        <v>0.728895127174269</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.340465794608917</v>
+        <v>1.403742144965349</v>
       </c>
       <c r="C23">
-        <v>4.633514249195628</v>
+        <v>1.302678222676093</v>
       </c>
       <c r="D23">
-        <v>0.4084643798700398</v>
+        <v>0.1172965450499248</v>
       </c>
       <c r="E23">
-        <v>0.2555730268539662</v>
+        <v>0.08152352182614209</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0006660601618597717</v>
+        <v>0.002459382282386952</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>17.61233338873149</v>
+        <v>5.841246952518134</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2.453536185971302</v>
+        <v>0.7079221333570871</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.241841151063113</v>
+        <v>1.261178798231583</v>
       </c>
       <c r="C24">
-        <v>3.759688163923727</v>
+        <v>1.143450650740533</v>
       </c>
       <c r="D24">
-        <v>0.3320137174492288</v>
+        <v>0.1033053594608475</v>
       </c>
       <c r="E24">
-        <v>0.2100032723083842</v>
+        <v>0.07233967109897321</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0006991562027903298</v>
+        <v>0.002472131102599406</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.56386809571845</v>
+        <v>5.210827989112062</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.981475908131415</v>
+        <v>0.6294988580485921</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.231155336988024</v>
+        <v>1.114051328887626</v>
       </c>
       <c r="C25">
-        <v>2.929603702725444</v>
+        <v>0.974361795246125</v>
       </c>
       <c r="D25">
-        <v>0.2591323596618764</v>
+        <v>0.08846516147946204</v>
       </c>
       <c r="E25">
-        <v>0.1659827552609556</v>
+        <v>0.06254534745742291</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007328471108167962</v>
+        <v>0.002486780673932875</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.62275838105717</v>
+        <v>4.534071086306739</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.536539038320285</v>
+        <v>0.5469382274811494</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_86/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_86/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.011094610950067</v>
+        <v>2.575594849760023</v>
       </c>
       <c r="C2">
-        <v>0.851912200597269</v>
+        <v>2.375787712570229</v>
       </c>
       <c r="D2">
-        <v>0.07773382499803461</v>
+        <v>0.2103879126733119</v>
       </c>
       <c r="E2">
-        <v>0.05541757197566</v>
+        <v>0.1362344129676352</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002498352824656007</v>
+        <v>0.0007569943950999357</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>4.037666906858703</v>
+        <v>9.635171673955114</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4877617833367225</v>
+        <v>1.241817765438569</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9445053853133345</v>
+        <v>2.16697762780214</v>
       </c>
       <c r="C3">
-        <v>0.770090198141645</v>
+        <v>2.02353123202397</v>
       </c>
       <c r="D3">
-        <v>0.07057300904632768</v>
+        <v>0.1793409075972079</v>
       </c>
       <c r="E3">
-        <v>0.05063322030689221</v>
+        <v>0.1171582609792914</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002506692214119027</v>
+        <v>0.0007732951090005202</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>3.701989948544707</v>
+        <v>8.359542236248473</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4485988992850238</v>
+        <v>1.055370547702736</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.905138486006507</v>
+        <v>1.928994820913374</v>
       </c>
       <c r="C4">
-        <v>0.7203888840911645</v>
+        <v>1.815559694606634</v>
       </c>
       <c r="D4">
-        <v>0.06622831972570964</v>
+        <v>0.1609969969532159</v>
       </c>
       <c r="E4">
-        <v>0.0477165122276908</v>
+        <v>0.1058392464058109</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002512059872913826</v>
+        <v>0.0007833562444765684</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>3.496110696767971</v>
+        <v>7.601840118665848</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4249970262051761</v>
+        <v>0.9457068496854433</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.889471005634789</v>
+        <v>1.834694237812499</v>
       </c>
       <c r="C5">
-        <v>0.7002655796318891</v>
+        <v>1.732527460755819</v>
       </c>
       <c r="D5">
-        <v>0.06447050239999896</v>
+        <v>0.153670625004338</v>
       </c>
       <c r="E5">
-        <v>0.04653293361720046</v>
+        <v>0.1013083366653511</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002514309712713722</v>
+        <v>0.0007874796959143824</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>3.412251916082198</v>
+        <v>7.298306074982548</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4154880792310109</v>
+        <v>0.9020173127316085</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.886891866654878</v>
+        <v>1.819182745940992</v>
       </c>
       <c r="C6">
-        <v>0.6969318559234239</v>
+        <v>1.71883401470194</v>
       </c>
       <c r="D6">
-        <v>0.0641793719211563</v>
+        <v>0.1524622453111704</v>
       </c>
       <c r="E6">
-        <v>0.04633669619306247</v>
+        <v>0.1005604594095217</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002514687079209966</v>
+        <v>0.0007881660777846519</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>3.398329028553945</v>
+        <v>7.248189518766765</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4139156314725341</v>
+        <v>0.8948175206408777</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9049256804531751</v>
+        <v>1.927712881338778</v>
       </c>
       <c r="C7">
-        <v>0.720116972558003</v>
+        <v>1.814433386005419</v>
       </c>
       <c r="D7">
-        <v>0.06620456239494388</v>
+        <v>0.160897626368282</v>
       </c>
       <c r="E7">
-        <v>0.04770053014411246</v>
+        <v>0.1057778312143078</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002512089961813152</v>
+        <v>0.000783411747522957</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>3.494979615644695</v>
+        <v>7.597726785578402</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4248683473931791</v>
+        <v>0.9451138455166941</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.987814965539485</v>
+        <v>2.431650108976726</v>
       </c>
       <c r="C8">
-        <v>0.8235854063493662</v>
+        <v>2.252358297555134</v>
       </c>
       <c r="D8">
-        <v>0.07525371035582396</v>
+        <v>0.1995126942137517</v>
       </c>
       <c r="E8">
-        <v>0.05376343436105202</v>
+        <v>0.1295638514665427</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002501177115772661</v>
+        <v>0.0007626107459741476</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>3.921866854210919</v>
+        <v>9.189256005371107</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4741645433138189</v>
+        <v>1.176391969633535</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.162754261462908</v>
+        <v>3.554627324970227</v>
       </c>
       <c r="C9">
-        <v>1.030985521590253</v>
+        <v>3.198231796195273</v>
       </c>
       <c r="D9">
-        <v>0.0934323850919867</v>
+        <v>0.2827428403284387</v>
       </c>
       <c r="E9">
-        <v>0.06583075442872399</v>
+        <v>0.1803040155100888</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002481724780382634</v>
+        <v>0.0007216571398796771</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>4.761684978658934</v>
+        <v>12.57941767160074</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5744896393367469</v>
+        <v>1.680129249218083</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.29933389737397</v>
+        <v>4.52245003492601</v>
       </c>
       <c r="C10">
-        <v>1.186447642184078</v>
+        <v>3.985549676543599</v>
       </c>
       <c r="D10">
-        <v>0.1070821039570689</v>
+        <v>0.351802720396762</v>
       </c>
       <c r="E10">
-        <v>0.07482298068691762</v>
+        <v>0.2218595400315237</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002468600739639869</v>
+        <v>0.0006903978963727259</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>5.381639588208827</v>
+        <v>15.35649419888324</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6506184819936038</v>
+        <v>2.103146266194571</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.363328137324402</v>
+        <v>5.014297668761174</v>
       </c>
       <c r="C11">
-        <v>1.257918685846732</v>
+        <v>4.376964560131967</v>
       </c>
       <c r="D11">
-        <v>0.1133622256748339</v>
+        <v>0.3860505296229064</v>
       </c>
       <c r="E11">
-        <v>0.07894522485135269</v>
+        <v>0.2422789510306345</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002462879506383099</v>
+        <v>0.0006755654804367158</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>5.664602265979056</v>
+        <v>16.72239930669917</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6858202454155418</v>
+        <v>2.314574426408512</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.387838292513152</v>
+        <v>5.210554956646831</v>
       </c>
       <c r="C12">
-        <v>1.285097052942717</v>
+        <v>4.531613464625536</v>
       </c>
       <c r="D12">
-        <v>0.1157510628113698</v>
+        <v>0.3995649565000861</v>
       </c>
       <c r="E12">
-        <v>0.08051107880248054</v>
+        <v>0.250301286561907</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002460748486064696</v>
+        <v>0.0006698162471523439</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>5.771911584220902</v>
+        <v>17.25936330746896</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6992357593881309</v>
+        <v>2.398305384367532</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.3825471299985</v>
+        <v>5.167789737405201</v>
       </c>
       <c r="C13">
-        <v>1.279238546626459</v>
+        <v>4.497987748977778</v>
       </c>
       <c r="D13">
-        <v>0.1152361001992119</v>
+        <v>0.3966273225057932</v>
       </c>
       <c r="E13">
-        <v>0.08017362359022684</v>
+        <v>0.2485591886642453</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002461205866027661</v>
+        <v>0.0006710612414893014</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>5.748793241771637</v>
+        <v>17.14274105275473</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6963426371117549</v>
+        <v>2.380090307795072</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.36533900021152</v>
+        <v>5.030224775703061</v>
       </c>
       <c r="C14">
-        <v>1.260152350602255</v>
+        <v>4.389547007532769</v>
       </c>
       <c r="D14">
-        <v>0.1135585394921179</v>
+        <v>0.3871504498964384</v>
       </c>
       <c r="E14">
-        <v>0.07907394965765491</v>
+        <v>0.2429326312631233</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002462703476827866</v>
+        <v>0.0006750954607339098</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>5.67342738376982</v>
+        <v>16.76614500102818</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6869222173166634</v>
+        <v>2.321382820135241</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.354834858469644</v>
+        <v>4.947359646829909</v>
       </c>
       <c r="C15">
-        <v>1.248476507265309</v>
+        <v>4.324020953261027</v>
       </c>
       <c r="D15">
-        <v>0.1125323928729642</v>
+        <v>0.3814216513154349</v>
       </c>
       <c r="E15">
-        <v>0.07840100822324558</v>
+        <v>0.2395265620932108</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002463625418634334</v>
+        <v>0.0006775476644135743</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>5.627284792310888</v>
+        <v>16.53821756390289</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6811631571086281</v>
+        <v>2.285934469312906</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.295189980669022</v>
+        <v>4.491543844184093</v>
       </c>
       <c r="C16">
-        <v>1.181792445260101</v>
+        <v>3.960766033685786</v>
       </c>
       <c r="D16">
-        <v>0.106673151168863</v>
+        <v>0.3496322148329369</v>
       </c>
       <c r="E16">
-        <v>0.07455424443099901</v>
+        <v>0.2205611577911455</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002468979618485356</v>
+        <v>0.0006913514740087077</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>5.363168140094899</v>
+        <v>15.26967847018949</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6483297254813607</v>
+        <v>2.089783395284357</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.259083347304852</v>
+        <v>4.226679717797367</v>
       </c>
       <c r="C17">
-        <v>1.141080314101089</v>
+        <v>3.747430314714677</v>
       </c>
       <c r="D17">
-        <v>0.1030971875829323</v>
+        <v>0.3309392010138055</v>
       </c>
       <c r="E17">
-        <v>0.0722026934179425</v>
+        <v>0.2093583004567989</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002472327788585017</v>
+        <v>0.0006996360143308547</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>5.201397937961559</v>
+        <v>14.52075816310759</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6283359172022642</v>
+        <v>1.974879798226851</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.23849061335784</v>
+        <v>4.07899313503998</v>
       </c>
       <c r="C18">
-        <v>1.117734054281129</v>
+        <v>3.627729881487653</v>
       </c>
       <c r="D18">
-        <v>0.1010470201150184</v>
+        <v>0.3204434855848461</v>
       </c>
       <c r="E18">
-        <v>0.0708531027210384</v>
+        <v>0.2030518931000103</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002474277019754757</v>
+        <v>0.0007043468156298083</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>5.108439333634323</v>
+        <v>14.09927772262981</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.616889486995106</v>
+        <v>1.910506587137476</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.231548029137514</v>
+        <v>4.029724901032921</v>
       </c>
       <c r="C19">
-        <v>1.109841305594159</v>
+        <v>3.587676682587471</v>
       </c>
       <c r="D19">
-        <v>0.100353992404834</v>
+        <v>0.3169303557020271</v>
       </c>
       <c r="E19">
-        <v>0.07039665372545301</v>
+        <v>0.2009384158338463</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.00247494103328849</v>
+        <v>0.0007059335968362159</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>5.076979486194034</v>
+        <v>13.95804139428765</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6130230070944691</v>
+        <v>1.888982529534488</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.262908800114019</v>
+        <v>4.254377367384222</v>
       </c>
       <c r="C20">
-        <v>1.14540687388569</v>
+        <v>3.769819291997919</v>
       </c>
       <c r="D20">
-        <v>0.1034771649500783</v>
+        <v>0.332901765499841</v>
       </c>
       <c r="E20">
-        <v>0.07245271161409761</v>
+        <v>0.2105362253207161</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002471968945379749</v>
+        <v>0.0006987599957043041</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>5.218609455400696</v>
+        <v>14.59949128969228</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6304587333450229</v>
+        <v>1.986928160322407</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.370385856564212</v>
+        <v>5.070333540413685</v>
       </c>
       <c r="C21">
-        <v>1.265755291679</v>
+        <v>4.421207825321744</v>
       </c>
       <c r="D21">
-        <v>0.1140509854298557</v>
+        <v>0.3899178584032938</v>
       </c>
       <c r="E21">
-        <v>0.07939681650129415</v>
+        <v>0.2445767069785774</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002462262631669178</v>
+        <v>0.0006739145511693856</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>5.695559710759596</v>
+        <v>16.8761758710811</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6896868788291499</v>
+        <v>2.338517771107774</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.442246822498532</v>
+        <v>5.664009170191321</v>
       </c>
       <c r="C22">
-        <v>1.345076318099416</v>
+        <v>4.88571279334252</v>
       </c>
       <c r="D22">
-        <v>0.121024153715112</v>
+        <v>0.4304706957413345</v>
       </c>
       <c r="E22">
-        <v>0.08396360225697208</v>
+        <v>0.2685706724348975</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.00245612568849126</v>
+        <v>0.0006568688086213341</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>6.008202873363928</v>
+        <v>18.4830064536859</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.728895127174269</v>
+        <v>2.590427532500797</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.403742144965349</v>
+        <v>5.340465794608633</v>
       </c>
       <c r="C23">
-        <v>1.302678222676093</v>
+        <v>4.633514249195969</v>
       </c>
       <c r="D23">
-        <v>0.1172965450499248</v>
+        <v>0.4084643798701961</v>
       </c>
       <c r="E23">
-        <v>0.08152352182614209</v>
+        <v>0.2555730268541581</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002459382282386952</v>
+        <v>0.0006660601621959563</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5.841246952518134</v>
+        <v>17.61233338873205</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7079221333570871</v>
+        <v>2.45353618597143</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.261178798231583</v>
+        <v>4.241841151062658</v>
       </c>
       <c r="C24">
-        <v>1.143450650740533</v>
+        <v>3.759688163924295</v>
       </c>
       <c r="D24">
-        <v>0.1033053594608475</v>
+        <v>0.3320137174487883</v>
       </c>
       <c r="E24">
-        <v>0.07233967109897321</v>
+        <v>0.2100032723084198</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002472131102599406</v>
+        <v>0.0006991562030477682</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>5.210827989112062</v>
+        <v>14.56386809571862</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6294988580485921</v>
+        <v>1.981475908131372</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.114051328887626</v>
+        <v>3.231155336988138</v>
       </c>
       <c r="C25">
-        <v>0.974361795246125</v>
+        <v>2.929603702725331</v>
       </c>
       <c r="D25">
-        <v>0.08846516147946204</v>
+        <v>0.2591323596624022</v>
       </c>
       <c r="E25">
-        <v>0.06254534745742291</v>
+        <v>0.165982755261048</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002486780673932875</v>
+        <v>0.0007328471106738874</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>4.534071086306739</v>
+        <v>11.62275838105757</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5469382274811494</v>
+        <v>1.536539038320271</v>
       </c>
       <c r="N25">
         <v>0</v>
